--- a/examples/experiment1/mnist_odenet_True.xlsx
+++ b/examples/experiment1/mnist_odenet_True.xlsx
@@ -11,6 +11,11 @@
     <sheet name="percentage_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="percentage_0.75" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="percentage_1.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="percentage_0.01" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="percentage_0.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="percentage_0.1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="percentage_0.15" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="percentage_0.2" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6484,4 +6489,7584 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6239607334136963</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09915</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1009</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.308566987514496</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.308564774195353</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.307059073448181</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.517472505569458</v>
+      </c>
+      <c r="C3" t="n">
+        <v>62.32799456000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.7612</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1123666666666667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1135</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.31126993894577</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.324379086494446</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.323050928115845</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4940710067749023</v>
+      </c>
+      <c r="C4" t="n">
+        <v>97.22452118563776</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.29776179281199</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1903333333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1874</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.281537592411041</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.290575746695201</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.289099240303039</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4830985069274902</v>
+      </c>
+      <c r="C5" t="n">
+        <v>130.6859854250841</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.85258490010563</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09991666666666667</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1022</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.264904856681824</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.271765180428823</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.269369983673096</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4215455055236816</v>
+      </c>
+      <c r="C6" t="n">
+        <v>154.2691271622539</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.18852581322772</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1257</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1242</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.214160263538361</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.231282166639964</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.22967209815979</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4384405612945557</v>
+      </c>
+      <c r="C7" t="n">
+        <v>176.9229990182437</v>
+      </c>
+      <c r="D7" t="n">
+        <v>35.55063330396857</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2121833333333333</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.2174</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.15527868270874</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.165110071500143</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.163196420669556</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4270589351654053</v>
+      </c>
+      <c r="C8" t="n">
+        <v>198.6842179341588</v>
+      </c>
+      <c r="D8" t="n">
+        <v>34.93787630476533</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2214333333333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2198</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.12056177854538</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.156378328800201</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.150357079505921</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4099459648132324</v>
+      </c>
+      <c r="C9" t="n">
+        <v>219.5879579975234</v>
+      </c>
+      <c r="D9" t="n">
+        <v>34.34926437623113</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.1572333333333333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.301887512207031</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.29308139483134</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.292807698249817</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4210569858551025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>239.6680072964685</v>
+      </c>
+      <c r="D10" t="n">
+        <v>33.78384610624277</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1264333333333333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1263</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.25698584318161</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.269242668151855</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.268389320373535</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4237337112426758</v>
+      </c>
+      <c r="C11" t="n">
+        <v>258.9568225336386</v>
+      </c>
+      <c r="D11" t="n">
+        <v>33.24070757211085</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2798833333333333</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2788</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.153286397457123</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.177341405550639</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.176343727111816</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.423640251159668</v>
+      </c>
+      <c r="C12" t="n">
+        <v>277.4855814880912</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32.71897086334648</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.2456666666666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2468</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.093194484710693</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.125843731562297</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.127339339256287</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4207656383514404</v>
+      </c>
+      <c r="C13" t="n">
+        <v>295.2842334099902</v>
+      </c>
+      <c r="D13" t="n">
+        <v>32.2177926626369</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.22065</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2175</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.038017362356186</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.070434415340423</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.066453552246094</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4353787899017334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>312.3815474295453</v>
+      </c>
+      <c r="D14" t="n">
+        <v>31.73636288273627</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.29355</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2989</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.964693576097488</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.001978087425232</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.995991027355194</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4271743297576904</v>
+      </c>
+      <c r="C15" t="n">
+        <v>328.8051590584469</v>
+      </c>
+      <c r="D15" t="n">
+        <v>31.27390335706855</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.28625</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2899</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.824602603912354</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.880634852250417</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.875184667110443</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4208383560180664</v>
+      </c>
+      <c r="C16" t="n">
+        <v>344.5816148589594</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30.82966658192565</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3329666666666667</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3315</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.795226842164993</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.897435835997264</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.900767362117767</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4392249584197998</v>
+      </c>
+      <c r="C17" t="n">
+        <v>359.7364153528731</v>
+      </c>
+      <c r="D17" t="n">
+        <v>30.40293450822812</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.1399666666666667</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1384</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.251867532730103</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.267930110295614</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.274166917800903</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4151437282562256</v>
+      </c>
+      <c r="C18" t="n">
+        <v>374.2940562396726</v>
+      </c>
+      <c r="D18" t="n">
+        <v>29.99301738089524</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2549333333333333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.2612</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.828272104263306</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.873617452383041</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.867685437202454</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4179596900939941</v>
+      </c>
+      <c r="C19" t="n">
+        <v>388.278067990545</v>
+      </c>
+      <c r="D19" t="n">
+        <v>29.59925262394862</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2829166666666666</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.2905</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.786290377378464</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.846661820014318</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.837060618400574</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4236404895782471</v>
+      </c>
+      <c r="C20" t="n">
+        <v>401.7110538822262</v>
+      </c>
+      <c r="D20" t="n">
+        <v>29.22100376954707</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.3429333333333333</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3463</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.748241037130356</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.786055912574132</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.777382659912109</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4151670932769775</v>
+      </c>
+      <c r="C21" t="n">
+        <v>414.6147265321615</v>
+      </c>
+      <c r="D21" t="n">
+        <v>28.85765942922187</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4337</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4306</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.608966290950775</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.707168209552765</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.70247049331665</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4310965538024902</v>
+      </c>
+      <c r="C22" t="n">
+        <v>427.0099429940354</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28.5086323056494</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.4875333333333333</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.4874</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.565408855676651</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.678717249631882</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.675949811935425</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4070553779602051</v>
+      </c>
+      <c r="C23" t="n">
+        <v>438.9167384703978</v>
+      </c>
+      <c r="D23" t="n">
+        <v>28.17335824336391</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4966</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.4889</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.447183102369308</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.567957172791163</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.562035751342773</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4118378162384033</v>
+      </c>
+      <c r="C24" t="n">
+        <v>450.3543586968776</v>
+      </c>
+      <c r="D24" t="n">
+        <v>27.85129531687598</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.4468166666666666</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4465</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.50905442237854</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.602528057495753</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.599597847461701</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4189889430999756</v>
+      </c>
+      <c r="C25" t="n">
+        <v>461.3412910503295</v>
+      </c>
+      <c r="D25" t="n">
+        <v>27.54192295472275</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.44285</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.4387</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.400194883346558</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.545115321874619</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.545408523082733</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4169614315032959</v>
+      </c>
+      <c r="C26" t="n">
+        <v>471.8952944311951</v>
+      </c>
+      <c r="D26" t="n">
+        <v>27.24474109803408</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4740833333333334</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.4729</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.297756165266037</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.416574112574259</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.40699805021286</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4084403514862061</v>
+      </c>
+      <c r="C27" t="n">
+        <v>482.0334279683812</v>
+      </c>
+      <c r="D27" t="n">
+        <v>26.95926939225455</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4826666666666667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.4759</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.438816666603088</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.584997630119324</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.587368595600128</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4112536907196045</v>
+      </c>
+      <c r="C28" t="n">
+        <v>491.7720785930493</v>
+      </c>
+      <c r="D28" t="n">
+        <v>26.68504641071484</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4865166666666667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.4795</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.336635172367096</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.486936992406845</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.485192561149597</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4163477420806885</v>
+      </c>
+      <c r="C29" t="n">
+        <v>501.1269875258895</v>
+      </c>
+      <c r="D29" t="n">
+        <v>26.42162890879749</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.49805</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.4999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.21337679028511</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.322352363665899</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.314241206645966</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.409435510635376</v>
+      </c>
+      <c r="C30" t="n">
+        <v>510.1132757206894</v>
+      </c>
+      <c r="D30" t="n">
+        <v>26.16859110749152</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.6753833333333333</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6748</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.012630581855774</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.129355729619662</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.117619848251343</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4062676429748535</v>
+      </c>
+      <c r="C31" t="n">
+        <v>518.7454683053243</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25.92552400517783</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5530833333333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5479000000000001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.181589424610138</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.347734012206395</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.347407066822052</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4196503162384033</v>
+      </c>
+      <c r="C32" t="n">
+        <v>527.037518059676</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.69203471653304</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6719333333333334</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.6714</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9102771282196045</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.055188860495885</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.049006998538971</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4143657684326172</v>
+      </c>
+      <c r="C33" t="n">
+        <v>535.0028279684278</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25.46774583748311</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.7094166666666667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.7192</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8354107439517975</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9425674935181936</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9305218875408172</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4248418807983398</v>
+      </c>
+      <c r="C34" t="n">
+        <v>542.6542728851883</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.25229483518038</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4993166666666667</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.384689807891846</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.505471742153168</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.505863165855408</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4339759349822998</v>
+      </c>
+      <c r="C35" t="n">
+        <v>550.0042203429632</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.04533346201788</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.5451</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5338000000000001</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.161033809185028</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.250342841943105</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.26170369386673</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4171557426452637</v>
+      </c>
+      <c r="C36" t="n">
+        <v>557.0645505446114</v>
+      </c>
+      <c r="D36" t="n">
+        <v>24.84652719273386</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.5941833333333333</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5967</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.035162210464478</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.100247829159101</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.082179862260819</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4184889793395996</v>
+      </c>
+      <c r="C37" t="n">
+        <v>563.8466755655971</v>
+      </c>
+      <c r="D37" t="n">
+        <v>24.65555468369664</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7209</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7248</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.8459703922271729</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8786524136861166</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8654371678829194</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4201462268829346</v>
+      </c>
+      <c r="C38" t="n">
+        <v>570.3615578000772</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24.4721072534958</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7696166666666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.7712</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.668464720249176</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.7584382961193721</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.7490270733833313</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4176526069641113</v>
+      </c>
+      <c r="C39" t="n">
+        <v>576.6197276801387</v>
+      </c>
+      <c r="D39" t="n">
+        <v>24.29588838400012</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.7618</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.6207067966461182</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.7939837455749512</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.7929176270961762</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4037308692932129</v>
+      </c>
+      <c r="C40" t="n">
+        <v>582.631300696828</v>
+      </c>
+      <c r="D40" t="n">
+        <v>24.12661324107586</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7402833333333333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7406</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.6414556801319122</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.8158810347318649</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8132732927799224</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4148387908935547</v>
+      </c>
+      <c r="C41" t="n">
+        <v>588.4059937504834</v>
+      </c>
+      <c r="D41" t="n">
+        <v>23.96400821419063</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8407</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.4562100917100906</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5942557215690613</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5844350427389144</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4304723739624023</v>
+      </c>
+      <c r="C42" t="n">
+        <v>593.9531408567995</v>
+      </c>
+      <c r="D42" t="n">
+        <v>23.80781047415874</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8497</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8546</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.4552228674292564</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.587300390501817</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.5705094695091247</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4110064506530762</v>
+      </c>
+      <c r="C43" t="n">
+        <v>599.2817082340096</v>
+      </c>
+      <c r="D43" t="n">
+        <v>23.65776754831309</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8371166666666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.4473238363862038</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.5731803337732951</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.5529932379722595</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4318952560424805</v>
+      </c>
+      <c r="C44" t="n">
+        <v>604.4003087955738</v>
+      </c>
+      <c r="D44" t="n">
+        <v>23.51363691241703</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8875833333333333</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3277958258986473</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.4279387071728706</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.4180705368518829</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.407785177230835</v>
+      </c>
+      <c r="C45" t="n">
+        <v>609.3172160717961</v>
+      </c>
+      <c r="D45" t="n">
+        <v>23.37518559865652</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8835166666666666</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2893898710608482</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.4072260166207949</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.3931270271539688</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4130682945251465</v>
+      </c>
+      <c r="C46" t="n">
+        <v>614.0403775828754</v>
+      </c>
+      <c r="D46" t="n">
+        <v>23.24218981907891</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8897166666666667</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.2556395828723907</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.3811787108580271</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.3621862947940827</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4132349491119385</v>
+      </c>
+      <c r="C47" t="n">
+        <v>618.5774276850037</v>
+      </c>
+      <c r="D47" t="n">
+        <v>23.11443460386982</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.89475</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.2627629823982716</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.3875554169217745</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.3804174035787583</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4125361442565918</v>
+      </c>
+      <c r="C48" t="n">
+        <v>622.9356999102783</v>
+      </c>
+      <c r="D48" t="n">
+        <v>22.99171345388327</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9177333333333333</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9212</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1811526753008366</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.3030411817133427</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.2926357492804527</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4117801189422607</v>
+      </c>
+      <c r="C49" t="n">
+        <v>627.1222388203709</v>
+      </c>
+      <c r="D49" t="n">
+        <v>22.87382800686359</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9295666666666667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9347</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.1493947226554155</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.2653173007071018</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.2499065354466438</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.4199910163879395</v>
+      </c>
+      <c r="C50" t="n">
+        <v>631.1438113931155</v>
+      </c>
+      <c r="D50" t="n">
+        <v>22.76058771681941</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9218</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.1794881895184517</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.2999570863942305</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.2840733557939529</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4157350063323975</v>
+      </c>
+      <c r="C51" t="n">
+        <v>635.0069179604195</v>
+      </c>
+      <c r="D51" t="n">
+        <v>22.65180954603174</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9236833333333333</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9302</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.1520717646926641</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.2737557095785936</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.2541990727186203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6116776466369629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09863333333333334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.315463408179905</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.311109654108683</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.310923933982849</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4114503860473633</v>
+      </c>
+      <c r="C3" t="n">
+        <v>59.13345451251259</v>
+      </c>
+      <c r="D3" t="n">
+        <v>35.21195916191048</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1673833333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1617</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.275081489397132</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.271414864063263</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.270858287811279</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4055294990539551</v>
+      </c>
+      <c r="C4" t="n">
+        <v>77.19002568842217</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.07242807309616</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3510666666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3488</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.923053150591643</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.900566069285075</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.891554117202759</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.3998847007751465</v>
+      </c>
+      <c r="C5" t="n">
+        <v>91.51997848725239</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.58085135706974</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4141</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4133</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.716756100239961</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.714355009794235</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.7057377576828</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4097280502319336</v>
+      </c>
+      <c r="C6" t="n">
+        <v>102.8924337123434</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.60350048643723</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6082833333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.6103</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9985217996265577</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.021620567639669</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.005666571855545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4817643165588379</v>
+      </c>
+      <c r="C7" t="n">
+        <v>111.9177766190735</v>
+      </c>
+      <c r="D7" t="n">
+        <v>26.03424659172805</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.80225</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.6324592310449352</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6336376607418061</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6139965355396271</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.410161018371582</v>
+      </c>
+      <c r="C8" t="n">
+        <v>119.0804176646363</v>
+      </c>
+      <c r="D8" t="n">
+        <v>24.7888642862234</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8855</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.8885</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.3925448396931524</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.4180568367242813</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.398597452044487</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4182806015014648</v>
+      </c>
+      <c r="C9" t="n">
+        <v>124.7647919070072</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23.80051109997785</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9328</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9368</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.21476534916007</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.2400774170955022</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.2333681046962738</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4228408336639404</v>
+      </c>
+      <c r="C10" t="n">
+        <v>129.2759924993289</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.01613989408866</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9099</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9145</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2887281237736992</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3254574581980705</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3152280613780022</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4604575634002686</v>
+      </c>
+      <c r="C11" t="n">
+        <v>132.856145725777</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22.45365170141621</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9557</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9604</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.1627571058014165</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1694443253179391</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.1511268585920334</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4651641845703125</v>
+      </c>
+      <c r="C12" t="n">
+        <v>135.6974064639192</v>
+      </c>
+      <c r="D12" t="n">
+        <v>22.35372546776894</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9645666666666667</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9661</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1061938302996366</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1267722707862655</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1176924075931311</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4762232303619385</v>
+      </c>
+      <c r="C13" t="n">
+        <v>137.9522715692648</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.99828077704208</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9636833333333333</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9669</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.09930015598302303</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1254172014693419</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.1151956140995026</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4673292636871338</v>
+      </c>
+      <c r="C14" t="n">
+        <v>139.7417647245566</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.40012091794501</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9642166666666667</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9693000000000001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.08924122025137363</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.1222482103854418</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1077409999445081</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4646010398864746</v>
+      </c>
+      <c r="C15" t="n">
+        <v>141.1619320530789</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23.54338977154629</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9683666666666667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9683</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.07958454055630643</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.1088914591819048</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.101343696936965</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4614017009735107</v>
+      </c>
+      <c r="C16" t="n">
+        <v>142.2889971301581</v>
+      </c>
+      <c r="D16" t="n">
+        <v>24.05039903335406</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9388666666666666</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.1660627748655236</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2068182330578566</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.183752453327179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4819314479827881</v>
+      </c>
+      <c r="C17" t="n">
+        <v>143.1834520739241</v>
+      </c>
+      <c r="D17" t="n">
+        <v>24.45276882546433</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9579333333333333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9606</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.09969525751860245</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.1469826692094406</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.128792042657733</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5293822288513184</v>
+      </c>
+      <c r="C18" t="n">
+        <v>143.8933042933725</v>
+      </c>
+      <c r="D18" t="n">
+        <v>24.72252512235964</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9705</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.06313623844281487</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.100419545173645</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.08697382807731628</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4568896293640137</v>
+      </c>
+      <c r="C19" t="n">
+        <v>144.4566531540029</v>
+      </c>
+      <c r="D19" t="n">
+        <v>24.98617769010871</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9675166666666667</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9692</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.06153150445417217</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.1101084626590212</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.1003617893904448</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5774648189544678</v>
+      </c>
+      <c r="C20" t="n">
+        <v>144.9037348564736</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25.1954161337937</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9709666666666666</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9734</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.05721690934961256</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.1022667124246558</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.09619427770376206</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4837629795074463</v>
+      </c>
+      <c r="C21" t="n">
+        <v>145.2585452815101</v>
+      </c>
+      <c r="D21" t="n">
+        <v>25.36147075138947</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9769</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9762999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03460618246184743</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.08204318424686789</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.074056407622993</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4698727130889893</v>
+      </c>
+      <c r="C22" t="n">
+        <v>145.5401279028047</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25.49325406777846</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.96645</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9711</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.06538848870474359</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1159149543382227</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.1042777992784977</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4718277454376221</v>
+      </c>
+      <c r="C23" t="n">
+        <v>145.7635958930898</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.5978391900107</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.96495</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9657</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.07205650501925012</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1283257488161325</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.1179407380521297</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4794468879699707</v>
+      </c>
+      <c r="C24" t="n">
+        <v>145.9409432821174</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.68083943687082</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.97805</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02935985008092678</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.07922199225674073</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0680927388370037</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4683809280395508</v>
+      </c>
+      <c r="C25" t="n">
+        <v>146.0816887032165</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.74670961832495</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.95665</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9581</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1141757236226745</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1721435201043884</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.1664155505597592</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4817297458648682</v>
+      </c>
+      <c r="C26" t="n">
+        <v>146.1933862797582</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.68869811321321</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9724833333333334</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.04356023029464742</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1008476882552107</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.09385583149269223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.4922232627868652</v>
+      </c>
+      <c r="C27" t="n">
+        <v>146.28203107195</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25.75294637612081</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9772999999999999</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9782999999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02249439117377219</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.08190454943105578</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0701126619707793</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4749698638916016</v>
+      </c>
+      <c r="C28" t="n">
+        <v>146.3523808452042</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25.74512871526357</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9575166666666667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9618</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.08051526206343071</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.1581013848384221</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.133984050899744</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.4676284790039062</v>
+      </c>
+      <c r="C29" t="n">
+        <v>146.4082114301098</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25.74865609168675</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9826833333333334</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9846</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01749993172352729</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.06154632812055449</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.05179828577674925</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4670646190643311</v>
+      </c>
+      <c r="C30" t="n">
+        <v>146.4525193797549</v>
+      </c>
+      <c r="D30" t="n">
+        <v>25.80052988425581</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.97405</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9771</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03597572073340416</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.09290346559137105</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.08479005917906761</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4734771251678467</v>
+      </c>
+      <c r="C31" t="n">
+        <v>146.4876828014724</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25.84169766698539</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9817833333333333</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9831</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0175267909957177</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.06684601938662429</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.06085979575291276</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4754214286804199</v>
+      </c>
+      <c r="C32" t="n">
+        <v>146.5155889952092</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.87436900738551</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9688</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9714</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.04424764880019685</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1132880610413849</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.09495696164667607</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4983987808227539</v>
+      </c>
+      <c r="C33" t="n">
+        <v>146.5377357491607</v>
+      </c>
+      <c r="D33" t="n">
+        <v>25.90029744979284</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9818166666666667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9825</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01955737406387925</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.06389183586773774</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.05772641077637673</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4598524570465088</v>
+      </c>
+      <c r="C34" t="n">
+        <v>146.5553117294331</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.92087463203993</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9792999999999999</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9794</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02205204910031803</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.07124122430880865</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.06963204368948936</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5131127834320068</v>
+      </c>
+      <c r="C35" t="n">
+        <v>147.1461606322271</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.93720497778836</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9688333333333333</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9735</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04332799152673587</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.116835014304767</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.1052754992619157</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4884042739868164</v>
+      </c>
+      <c r="C36" t="n">
+        <v>147.0381664071588</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25.89367616446709</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9751833333333333</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9765</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02904283866772185</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.09273930024355651</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0809192644432187</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4627091884613037</v>
+      </c>
+      <c r="C37" t="n">
+        <v>146.9524606475935</v>
+      </c>
+      <c r="D37" t="n">
+        <v>25.81597894231219</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9714833333333334</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03917354598398442</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.1011929066851735</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.09189939722418786</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4784266948699951</v>
+      </c>
+      <c r="C38" t="n">
+        <v>146.8844433326119</v>
+      </c>
+      <c r="D38" t="n">
+        <v>25.85395826012777</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9827</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9851</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01619717806233498</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.06605283692479133</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.05580777879804373</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4552872180938721</v>
+      </c>
+      <c r="C39" t="n">
+        <v>146.8304638199074</v>
+      </c>
+      <c r="D39" t="n">
+        <v>25.88409918922925</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9792166666666666</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9786</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01568694142422274</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0764607671337823</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.07145775025710463</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5144438743591309</v>
+      </c>
+      <c r="C40" t="n">
+        <v>146.787624907601</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25.90801946108648</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9840833333333333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9856</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.00971256993184595</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0574625256859387</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.04851400293409824</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4662961959838867</v>
+      </c>
+      <c r="C41" t="n">
+        <v>146.753627334899</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25.92700293050101</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.98425</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9855</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.007070793593099907</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.06288261191609006</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.05112775489687919</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4961769580841064</v>
+      </c>
+      <c r="C42" t="n">
+        <v>148.1806574780923</v>
+      </c>
+      <c r="D42" t="n">
+        <v>25.9420684829815</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9856</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9864000000000001</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.005110356101320814</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.05786985844994585</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.05104359732940793</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4773075580596924</v>
+      </c>
+      <c r="C43" t="n">
+        <v>156.9374193442517</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25.954024720621</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.98305</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9851</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.009725234552246073</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.07121661332979178</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0619163604453206</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4607992172241211</v>
+      </c>
+      <c r="C44" t="n">
+        <v>163.2589401652541</v>
+      </c>
+      <c r="D44" t="n">
+        <v>25.96351336159035</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9819</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9821</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.01454203760089434</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.06794178450169662</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.06351006180047988</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4962737560272217</v>
+      </c>
+      <c r="C45" t="n">
+        <v>160.448589863912</v>
+      </c>
+      <c r="D45" t="n">
+        <v>25.97104368259598</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9847</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.005987524158705998</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.06324551995688428</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.049395049829036</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4890673160552979</v>
+      </c>
+      <c r="C46" t="n">
+        <v>166.6734257164127</v>
+      </c>
+      <c r="D46" t="n">
+        <v>25.97701985290648</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9791</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9801</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.01413873455527684</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.08213117786993583</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.06882774028927088</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4929430484771729</v>
+      </c>
+      <c r="C47" t="n">
+        <v>171.0899687468942</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25.98176262702638</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9840833333333333</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9855</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.003853378987000526</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.06390817031885186</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.05568026639521122</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.488800048828125</v>
+      </c>
+      <c r="C48" t="n">
+        <v>175.1185759956115</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25.98552656031202</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9823666666666667</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.01020715070847908</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.07017180802843843</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.05790158389136195</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4715642929077148</v>
+      </c>
+      <c r="C49" t="n">
+        <v>177.9238935014818</v>
+      </c>
+      <c r="D49" t="n">
+        <v>25.9885136715302</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9810666666666666</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9831</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.009969914762262741</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.07319592280158152</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.06258477456867695</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.4788458347320557</v>
+      </c>
+      <c r="C50" t="n">
+        <v>176.5164535169246</v>
+      </c>
+      <c r="D50" t="n">
+        <v>25.99088428565977</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9840166666666667</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9861</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.004152222976857877</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.06106757259888885</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.05149972541257739</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4902942180633545</v>
+      </c>
+      <c r="C51" t="n">
+        <v>175.9045145960785</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25.992765638894</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9834166666666667</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9842</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.004750285717739683</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.06709274294941375</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.05877596531063319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6245341300964355</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09736666666666667</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0982</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.315677305926447</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.314193983872732</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.314592480659485</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4013547897338867</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54.82030440041061</v>
+      </c>
+      <c r="D3" t="n">
+        <v>31.88981853331412</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3705333333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.3742</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.766584170901257</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.731348739067713</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.721011734008789</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4196000099182129</v>
+      </c>
+      <c r="C4" t="n">
+        <v>65.59675063864462</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.48848868299935</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.70635</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7125</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.120972013991812</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.080351798733076</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.068480664491653</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4254469871520996</v>
+      </c>
+      <c r="C5" t="n">
+        <v>72.38401113987555</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.71642713455093</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9166833333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9249000000000001</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3396992327078529</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3333382266263167</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3176112562417984</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4189207553863525</v>
+      </c>
+      <c r="C6" t="n">
+        <v>76.65878819468313</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.97051726418829</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8736333333333334</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8803</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.406964763675047</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.3989936312039693</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3795334458351135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4095020294189453</v>
+      </c>
+      <c r="C7" t="n">
+        <v>79.35114380192633</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.87090196988293</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9522</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9559</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1630075513992621</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1686773000905911</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1537443913519382</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4328162670135498</v>
+      </c>
+      <c r="C8" t="n">
+        <v>81.04685298697053</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.17833827229691</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9678333333333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9704</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.09861068200805913</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1139559953163067</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0984549954533577</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4300000667572021</v>
+      </c>
+      <c r="C9" t="n">
+        <v>82.11485070335978</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.74214528944376</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9708666666666667</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9742</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.09209944850400738</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1016191859419147</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.08978065513074399</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4132635593414307</v>
+      </c>
+      <c r="C10" t="n">
+        <v>82.78750090321283</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.4674206410778</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9710666666666666</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9733000000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.080264528039033</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.09864499264707167</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0851984441280365</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.433476448059082</v>
+      </c>
+      <c r="C11" t="n">
+        <v>83.21115189461383</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.05053939192774</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9707166666666667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9727</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.08140542309569276</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.09829311929643154</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.09375897981226444</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.529144287109375</v>
+      </c>
+      <c r="C12" t="n">
+        <v>83.47797730038089</v>
+      </c>
+      <c r="D12" t="n">
+        <v>21.08846314343535</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9639</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9673</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.1009593379238377</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.1281533459822337</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.1205057352781296</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4298725128173828</v>
+      </c>
+      <c r="C13" t="n">
+        <v>83.64603024633833</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21.17442452167449</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9790166666666666</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9822</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.05253729566364833</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.06899105198681355</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05757701434195042</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4476962089538574</v>
+      </c>
+      <c r="C14" t="n">
+        <v>83.75187396299566</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20.73968031681511</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9794333333333334</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9809</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04839486033534226</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.07095122163494429</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.06177862808108329</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4298579692840576</v>
+      </c>
+      <c r="C15" t="n">
+        <v>83.81853683696083</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21.00387772526233</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.97305</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9752999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.06659647773789323</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.08710133278121551</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.07894327603280545</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4198884963989258</v>
+      </c>
+      <c r="C16" t="n">
+        <v>83.86052269030806</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21.40910745405173</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9830666666666666</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9849</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0297479210421443</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.05462141692017516</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.05059447316452861</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4932775497436523</v>
+      </c>
+      <c r="C17" t="n">
+        <v>83.88696637292233</v>
+      </c>
+      <c r="D17" t="n">
+        <v>21.40647829444623</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9834833333333334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9839</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.02941266079838185</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.05461850998302301</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.05511167673394084</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4343879222869873</v>
+      </c>
+      <c r="C18" t="n">
+        <v>83.9036212291288</v>
+      </c>
+      <c r="D18" t="n">
+        <v>21.83460805620505</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03281970654168855</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.06186192529276013</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0558950393460691</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4789772033691406</v>
+      </c>
+      <c r="C19" t="n">
+        <v>83.91411085114198</v>
+      </c>
+      <c r="D19" t="n">
+        <v>22.39612853686412</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9799333333333333</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9833</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.04092105192577709</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.07151575963944197</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.05755772460252047</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4763367176055908</v>
+      </c>
+      <c r="C20" t="n">
+        <v>84.25076894907407</v>
+      </c>
+      <c r="D20" t="n">
+        <v>22.78658972153345</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9805</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9845</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0379735558172283</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.06950169221187631</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.05471059838309884</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4239575862884521</v>
+      </c>
+      <c r="C21" t="n">
+        <v>84.13275268868182</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23.44225835012411</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9848333333333333</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02717225381638855</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.05219716311742862</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.04163744002580642</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5068881511688232</v>
+      </c>
+      <c r="C22" t="n">
+        <v>84.05842325902056</v>
+      </c>
+      <c r="D22" t="n">
+        <v>23.14643216715702</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9776166666666667</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9769</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04445062927982729</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.07832484425355991</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.08222746513783932</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4956352710723877</v>
+      </c>
+      <c r="C23" t="n">
+        <v>84.01160882772604</v>
+      </c>
+      <c r="D23" t="n">
+        <v>23.18001755536826</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9842833333333333</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9861</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02258995105006287</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.05250250236131251</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.04804617273621261</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4805951118469238</v>
+      </c>
+      <c r="C24" t="n">
+        <v>83.98212399261539</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23.81366604522612</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9861166666666666</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9882</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0187965380280967</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.04840975451904039</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.04201712375506759</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4321177005767822</v>
+      </c>
+      <c r="C25" t="n">
+        <v>83.96355374670058</v>
+      </c>
+      <c r="D25" t="n">
+        <v>23.59570269379141</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9851833333333333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9866</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02096028399208318</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.05177491169112424</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.04503385201096535</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5240869522094727</v>
+      </c>
+      <c r="C26" t="n">
+        <v>85.23488808627671</v>
+      </c>
+      <c r="D26" t="n">
+        <v>24.24442696628652</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.98625</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01504138469665676</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.04860391127876938</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.04183727540075779</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6129829883575439</v>
+      </c>
+      <c r="C27" t="n">
+        <v>92.38557009377512</v>
+      </c>
+      <c r="D27" t="n">
+        <v>24.8476293355002</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9872166666666666</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01158998449049566</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.04841520486709972</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03712573163211345</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4385297298431396</v>
+      </c>
+      <c r="C28" t="n">
+        <v>89.25624268475366</v>
+      </c>
+      <c r="D28" t="n">
+        <v>24.00376225423425</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9846666666666667</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9866</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02092547196408977</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.05319593621728321</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.04748525498434901</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5047698020935059</v>
+      </c>
+      <c r="C29" t="n">
+        <v>87.28531833277997</v>
+      </c>
+      <c r="D29" t="n">
+        <v>23.62173306004284</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9862666666666666</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9882</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01300488312667965</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.04712801477095733</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.03851839136332273</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4901061058044434</v>
+      </c>
+      <c r="C30" t="n">
+        <v>86.67655517265523</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24.45682812267341</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9844666666666667</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9849</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02101084250329143</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.05869904411956668</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.05602029021829367</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4336085319519043</v>
+      </c>
+      <c r="C31" t="n">
+        <v>92.91541373723869</v>
+      </c>
+      <c r="D31" t="n">
+        <v>23.78523232818395</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9861833333333333</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01184504044130849</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.04924279162660241</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.03743212157860398</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5120460987091064</v>
+      </c>
+      <c r="C32" t="n">
+        <v>89.76815673224978</v>
+      </c>
+      <c r="D32" t="n">
+        <v>23.50412414175528</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.98555</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9875</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01305407886747676</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0507467521664997</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.04625532440841198</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4917397499084473</v>
+      </c>
+      <c r="C33" t="n">
+        <v>96.41803268304898</v>
+      </c>
+      <c r="D33" t="n">
+        <v>24.37097900093387</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9831666666666666</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01969333219787349</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.06307486256894966</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.05021115620620549</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4922780990600586</v>
+      </c>
+      <c r="C34" t="n">
+        <v>91.96948407901525</v>
+      </c>
+      <c r="D34" t="n">
+        <v>24.17872328300555</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9880666666666666</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0127474833684771</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.04223514561696599</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.03744665067642927</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5000698566436768</v>
+      </c>
+      <c r="C35" t="n">
+        <v>94.45303891743393</v>
+      </c>
+      <c r="D35" t="n">
+        <v>24.75496018855162</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.98725</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01251067146000898</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.04457292332857226</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.04075004784390331</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.503828763961792</v>
+      </c>
+      <c r="C36" t="n">
+        <v>92.06858496681868</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25.04319500669713</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9859166666666667</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01216253085294738</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.05712275192296754</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.04134210357442498</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4879918098449707</v>
+      </c>
+      <c r="C37" t="n">
+        <v>97.16418847467827</v>
+      </c>
+      <c r="D37" t="n">
+        <v>24.86101506961429</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9829166666666667</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01702932161582715</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.06339098522439598</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.05761192310601473</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.4811043739318848</v>
+      </c>
+      <c r="C38" t="n">
+        <v>92.56826656055669</v>
+      </c>
+      <c r="D38" t="n">
+        <v>24.88739611671851</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9861666666666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.009098741835813322</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.050187967880629</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.04034136803820729</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4870231151580811</v>
+      </c>
+      <c r="C39" t="n">
+        <v>90.42441387472749</v>
+      </c>
+      <c r="D39" t="n">
+        <v>25.29925578214089</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9821333333333333</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9849</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02016600998341227</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.06746032259737451</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.05456322804093361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.507498025894165</v>
+      </c>
+      <c r="C40" t="n">
+        <v>88.13986615351625</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25.26843352073943</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9859666666666667</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.008729499210502305</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.05187106321488197</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.04622798282653093</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4255332946777344</v>
+      </c>
+      <c r="C41" t="n">
+        <v>94.47967177047313</v>
+      </c>
+      <c r="D41" t="n">
+        <v>24.88744281089487</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9881166666666666</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.005689852421789471</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.04295373020189194</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0344297565985471</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5454199314117432</v>
+      </c>
+      <c r="C42" t="n">
+        <v>96.53698627771658</v>
+      </c>
+      <c r="D42" t="n">
+        <v>25.1618727839993</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.006165014016796308</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.04799917459410305</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.04426103634759784</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.507922887802124</v>
+      </c>
+      <c r="C43" t="n">
+        <v>100.0981670733746</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25.28818252651799</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9862833333333333</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9879</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.006916671710433034</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.05334138160105795</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.04317440520972014</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4608011245727539</v>
+      </c>
+      <c r="C44" t="n">
+        <v>101.8285269756317</v>
+      </c>
+      <c r="D44" t="n">
+        <v>24.62075572676948</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9875666666666667</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.004970763572086783</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.04723060718194271</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.03688394892960787</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4691615104675293</v>
+      </c>
+      <c r="C45" t="n">
+        <v>104.0757049949268</v>
+      </c>
+      <c r="D45" t="n">
+        <v>24.9899602119506</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9848833333333333</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9874000000000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.01082364126214879</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.05535793570258344</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.04623572258278728</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.4347743988037109</v>
+      </c>
+      <c r="C46" t="n">
+        <v>100.1881051333044</v>
+      </c>
+      <c r="D46" t="n">
+        <v>24.59788832907746</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9883166666666666</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.006826990392848687</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0426992720613877</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.03545093992725015</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4140381813049316</v>
+      </c>
+      <c r="C47" t="n">
+        <v>94.92695712723983</v>
+      </c>
+      <c r="D47" t="n">
+        <v>23.59229343585991</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9825</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9844000000000001</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.01506879832089433</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.06663364462244013</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.05726465377956629</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4248356819152832</v>
+      </c>
+      <c r="C48" t="n">
+        <v>92.89244138636573</v>
+      </c>
+      <c r="D48" t="n">
+        <v>23.43032453846231</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9863</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.009156247144109448</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.05204877405194566</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.04781848425045609</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5078427791595459</v>
+      </c>
+      <c r="C49" t="n">
+        <v>91.9534635710952</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23.25107497666848</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.98865</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9903</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.002644468688547773</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0435800529376138</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.03425526991486549</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5016942024230957</v>
+      </c>
+      <c r="C50" t="n">
+        <v>98.02893606841333</v>
+      </c>
+      <c r="D50" t="n">
+        <v>23.39266507484365</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9863333333333333</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9858</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.007834076095605269</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.05240145140172293</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.05026626186445356</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5153312683105469</v>
+      </c>
+      <c r="C51" t="n">
+        <v>100.6434943302887</v>
+      </c>
+      <c r="D51" t="n">
+        <v>22.79978991870364</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9861666666666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9852</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.008671065946818208</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.05196828056747715</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.05339202862232924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6356368064880371</v>
+      </c>
+      <c r="C2" t="n">
+        <v>32</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09863333333333334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0958</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.316762430327279</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.317556150754293</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.317963457107544</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4388623237609863</v>
+      </c>
+      <c r="C3" t="n">
+        <v>53.54307364444223</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.40276880933937</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3982833333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4063</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.845918904032026</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.816609827677409</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.807187616825104</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4539406299591064</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57.59156485685329</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.65285351414407</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7415166666666667</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.7446</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8189771745886122</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7749189784129461</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7601004004478454</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4602384567260742</v>
+      </c>
+      <c r="C5" t="n">
+        <v>59.59491482180608</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.30241179625513</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.9440333333333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9469</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.215353279880115</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2110313671330611</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.198425693064928</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4364469051361084</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60.58624983317336</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.13932236710654</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9598666666666666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9631999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1519346358520644</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1407513525336981</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1303584769368172</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4186804294586182</v>
+      </c>
+      <c r="C7" t="n">
+        <v>61.07680072141315</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20.56378075299149</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.96165</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9643</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1232042655880962</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1285582021499674</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1196747194975614</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4161977767944336</v>
+      </c>
+      <c r="C8" t="n">
+        <v>61.3195442654154</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.27898051211865</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9556666666666667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9584</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.1550157586910895</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1473267118136088</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.1422266647219658</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4331037998199463</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61.43966315535607</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.13805034267132</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.96465</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9678</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1076915102877787</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.1235186686118444</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1086891688406467</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4009287357330322</v>
+      </c>
+      <c r="C10" t="n">
+        <v>61.49910262584695</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.06831264652478</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9782833333333333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9792999999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05927173064223357</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0748338141789039</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.07053006328642368</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.4148592948913574</v>
+      </c>
+      <c r="C11" t="n">
+        <v>61.52851557375203</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20.03380373844002</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9775</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9759</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.07090715860415782</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.08074596027533214</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.08532888349145651</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4158167839050293</v>
+      </c>
+      <c r="C12" t="n">
+        <v>61.58240979070271</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.01672739661908</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.97265</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.08162175027121391</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.09141541179269552</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.08924920372664928</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4142425060272217</v>
+      </c>
+      <c r="C13" t="n">
+        <v>61.56973917954432</v>
+      </c>
+      <c r="D13" t="n">
+        <v>20.00827736252154</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.98345</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.04038069182341653</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.05884942511717479</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.05500997025519609</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4240560531616211</v>
+      </c>
+      <c r="C14" t="n">
+        <v>61.56346927130244</v>
+      </c>
+      <c r="D14" t="n">
+        <v>20.00409595897514</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9817833333333333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03995810198996749</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.06420936078454058</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.05480647440999746</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4253387451171875</v>
+      </c>
+      <c r="C15" t="n">
+        <v>61.56036667831221</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20.00202683884899</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9856</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9867</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0313714469649962</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.04701856803148985</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.04959620507434011</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4267086982727051</v>
+      </c>
+      <c r="C16" t="n">
+        <v>61.55883139535562</v>
+      </c>
+      <c r="D16" t="n">
+        <v>20.00100295821921</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9744</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9742</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.06593192203768662</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.08835097750027975</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.08848090954124928</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4326579570770264</v>
+      </c>
+      <c r="C17" t="n">
+        <v>61.55807167799528</v>
+      </c>
+      <c r="D17" t="n">
+        <v>20.0004963025008</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9876333333333334</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9869</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.02412191914128406</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.04332542945630848</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04638133626431227</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.4228799343109131</v>
+      </c>
+      <c r="C18" t="n">
+        <v>61.89444860865757</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20.0002455896642</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9851833333333333</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9859</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03203149806442005</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.05071958812574546</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.048955212906003</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.4892294406890869</v>
+      </c>
+      <c r="C19" t="n">
+        <v>61.81249503915249</v>
+      </c>
+      <c r="D19" t="n">
+        <v>20.00012152726021</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9843666666666666</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9853</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03191696469272886</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.05225370175515612</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.05043348260223866</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4368293285369873</v>
+      </c>
+      <c r="C20" t="n">
+        <v>62.40964738488023</v>
+      </c>
+      <c r="D20" t="n">
+        <v>20.00006013638649</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9874000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9878</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02085788443884147</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.04388775409509738</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0410352336242795</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4633147716522217</v>
+      </c>
+      <c r="C21" t="n">
+        <v>63.90849206123207</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20.00002975780884</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.98925</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01602772760670632</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.03597723274336507</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.03916507996618748</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.4503233432769775</v>
+      </c>
+      <c r="C22" t="n">
+        <v>70.1503527156633</v>
+      </c>
+      <c r="D22" t="n">
+        <v>20.00001472531419</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9843</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9818</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0291842978846814</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.05664786663837731</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0684580821543932</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4216437339782715</v>
+      </c>
+      <c r="C23" t="n">
+        <v>71.95839589433737</v>
+      </c>
+      <c r="D23" t="n">
+        <v>20.00000728665469</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.98715</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9862</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.02262037385787283</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0455404630706956</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.04765354655683041</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4672484397888184</v>
+      </c>
+      <c r="C24" t="n">
+        <v>68.62049418171495</v>
+      </c>
+      <c r="D24" t="n">
+        <v>20.12837258500571</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9876</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9874000000000001</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01616391963325441</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.04477900399360805</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.04699390511959791</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4282023906707764</v>
+      </c>
+      <c r="C25" t="n">
+        <v>65.44874007139056</v>
+      </c>
+      <c r="D25" t="n">
+        <v>20.0635237178936</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9889833333333333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9873</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01595947748449232</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.03722882330572853</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03916416494175792</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4237456321716309</v>
+      </c>
+      <c r="C26" t="n">
+        <v>64.06575068463256</v>
+      </c>
+      <c r="D26" t="n">
+        <v>20.03143399141524</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9859666666666667</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9858</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02398036167557751</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.04759616617423792</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.05024957833811641</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.445681095123291</v>
+      </c>
+      <c r="C27" t="n">
+        <v>64.27100308432915</v>
+      </c>
+      <c r="D27" t="n">
+        <v>20.01555475417776</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9875833333333334</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01549492117815784</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.04235754791491975</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0433790473267436</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4200620651245117</v>
+      </c>
+      <c r="C28" t="n">
+        <v>64.45647224435446</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20.00769709370769</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.98785</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9887</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01403278121225802</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.04272621693865707</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03754428224638105</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5028059482574463</v>
+      </c>
+      <c r="C29" t="n">
+        <v>66.24760213448636</v>
+      </c>
+      <c r="D29" t="n">
+        <v>20.0038088195331</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9819333333333333</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9815</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02836506055401904</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.06510820544014374</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0674781022593379</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4356722831726074</v>
+      </c>
+      <c r="C30" t="n">
+        <v>65.42578591115451</v>
+      </c>
+      <c r="D30" t="n">
+        <v>20.08889996719202</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.98925</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9889</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01324597506318241</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.03945168155090262</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.03956822943873704</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4625136852264404</v>
+      </c>
+      <c r="C31" t="n">
+        <v>64.76922064261836</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20.04399114060377</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9898666666666667</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01090963198553904</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0345529181106637</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.03283163500018418</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4164495468139648</v>
+      </c>
+      <c r="C32" t="n">
+        <v>70.55720360251098</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20.02176851705061</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9885833333333334</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01259921892778948</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.04165750998072326</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.04540163986384869</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.4456360340118408</v>
+      </c>
+      <c r="C33" t="n">
+        <v>72.89159267557233</v>
+      </c>
+      <c r="D33" t="n">
+        <v>20.01077190379875</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9882166666666666</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9885</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.01160593186172524</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.04098914694041014</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.04432220496237278</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5283024311065674</v>
+      </c>
+      <c r="C34" t="n">
+        <v>75.72328634326682</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20.00533035443707</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9908833333333333</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9903</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.006326268321884397</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.03407676809777816</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.03224654337391257</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4576303958892822</v>
+      </c>
+      <c r="C35" t="n">
+        <v>76.95634106086349</v>
+      </c>
+      <c r="D35" t="n">
+        <v>20.00263766544479</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9858333333333333</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.01657566412385287</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.05259305910052111</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.05655661318451166</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5133717060089111</v>
+      </c>
+      <c r="C36" t="n">
+        <v>78.47376823662715</v>
+      </c>
+      <c r="D36" t="n">
+        <v>20.42669078574178</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9893666666666666</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9883</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0100059370967626</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.03880541011846314</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.04138876534998417</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4340753555297852</v>
+      </c>
+      <c r="C37" t="n">
+        <v>78.96526850315136</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20.30202561637634</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9898</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9897</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.008548190409783274</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.03852249740933378</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.04108998798765242</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.444230318069458</v>
+      </c>
+      <c r="C38" t="n">
+        <v>79.15767456163569</v>
+      </c>
+      <c r="D38" t="n">
+        <v>20.32443319937428</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9894166666666667</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.008911846593088869</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03876826484144355</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.04335298109799623</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4534883499145508</v>
+      </c>
+      <c r="C39" t="n">
+        <v>79.59557426004034</v>
+      </c>
+      <c r="D39" t="n">
+        <v>20.40707503312163</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9874000000000001</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01731111144347649</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0518240012965786</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.04890118204057217</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4517889022827148</v>
+      </c>
+      <c r="C40" t="n">
+        <v>76.2687359182444</v>
+      </c>
+      <c r="D40" t="n">
+        <v>20.20143646374657</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9901833333333333</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9893999999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.006020846500593637</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.03595663466840051</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.03735490287654102</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4266269207000732</v>
+      </c>
+      <c r="C41" t="n">
+        <v>77.54714913275333</v>
+      </c>
+      <c r="D41" t="n">
+        <v>20.09967854971491</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9911166666666666</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.006488027206588803</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.03302476574511578</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.03368134568445384</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.4670376777648926</v>
+      </c>
+      <c r="C42" t="n">
+        <v>75.58651864042966</v>
+      </c>
+      <c r="D42" t="n">
+        <v>20.04932479993178</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9912</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9889</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.005159703834215179</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.03353825764885793</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.03801417634822428</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.4593691825866699</v>
+      </c>
+      <c r="C43" t="n">
+        <v>70.88055907386226</v>
+      </c>
+      <c r="D43" t="n">
+        <v>20.02440781788324</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9912166666666666</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9906</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.005950011831009761</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.03343895661625235</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.03378614273387939</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4733004570007324</v>
+      </c>
+      <c r="C44" t="n">
+        <v>75.49973752671441</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20.11083961482868</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9881</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9879</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.008394554374639743</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.04734671979676932</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.04832055531442166</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.472564697265625</v>
+      </c>
+      <c r="C45" t="n">
+        <v>77.78548560077797</v>
+      </c>
+      <c r="D45" t="n">
+        <v>20.14431250695688</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9904666666666667</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9897</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.005242567600881947</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.03801745697273873</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.03731531873345375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.445512056350708</v>
+      </c>
+      <c r="C46" t="n">
+        <v>78.91656211393132</v>
+      </c>
+      <c r="D46" t="n">
+        <v>20.13081140750606</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.9904833333333334</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9892</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.004661228120468357</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.03865431143591801</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.04009429265279323</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.450141429901123</v>
+      </c>
+      <c r="C47" t="n">
+        <v>79.47626249960535</v>
+      </c>
+      <c r="D47" t="n">
+        <v>20.26410265144775</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9900166666666667</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.006207001199072693</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.03768859971508694</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.04360281946137547</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4520266056060791</v>
+      </c>
+      <c r="C48" t="n">
+        <v>79.70928568605076</v>
+      </c>
+      <c r="D48" t="n">
+        <v>20.21218522068347</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9889333333333333</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9871</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.007570733944885433</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.04126926388125866</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.04670284921303391</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4652390480041504</v>
+      </c>
+      <c r="C49" t="n">
+        <v>79.37213127446559</v>
+      </c>
+      <c r="D49" t="n">
+        <v>20.10499745018993</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.99065</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9903</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.005748637806391343</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.03340234295659077</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.03502210390288383</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.4753186702728271</v>
+      </c>
+      <c r="C50" t="n">
+        <v>79.70169573235938</v>
+      </c>
+      <c r="D50" t="n">
+        <v>20.05195679751337</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9893166666666666</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9899</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.007441579119352225</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0425901726334511</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.04077182714827358</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4364352226257324</v>
+      </c>
+      <c r="C51" t="n">
+        <v>79.24939704529416</v>
+      </c>
+      <c r="D51" t="n">
+        <v>20.02571023203858</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9904500000000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9898</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.005280221396450153</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.03868505736657728</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.03561812248080969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Batch Time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Forward NFE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Backward NFE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Train Accuracy</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Test Accuracy</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Train Loss</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Val Loss</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Test Loss</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6408038139343262</v>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1149833333333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.1141</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.305393583031111</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.305143241087596</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.305237555503845</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4990561008453369</v>
+      </c>
+      <c r="C3" t="n">
+        <v>46.66244652390596</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.46064696374861</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6330666666666667</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6259</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.061018024080543</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.990899387995402</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9821451008319855</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.4346420764923096</v>
+      </c>
+      <c r="C4" t="n">
+        <v>48.95582257220463</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.92987834134819</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.91915</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3115150593621757</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2908175900578499</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2704428970813751</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4643740653991699</v>
+      </c>
+      <c r="C5" t="n">
+        <v>49.85645663854316</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.64328660602502</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9594</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.157540704854714</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1538518692056338</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.1459451280534267</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4819786548614502</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50.21014556890908</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.18430086059662</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.97335</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.09811971330594632</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.09265437467644612</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0862070482224226</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5438880920410156</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50.34904311247185</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.1022775475288</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9752999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9778</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.07597841482649567</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.08629119240989287</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.08144894093275071</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.48830246925354</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50.40358970964072</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.49352827738197</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9798333333333333</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.05729594856740967</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.07160789432624975</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.07886878214776516</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4865682125091553</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50.42501075990832</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24.01000259227283</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9814333333333334</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9831</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.05046750457396591</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.05974554189791282</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.05904071591794491</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4894180297851562</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50.43342304258738</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.80807574920347</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9818333333333333</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9834000000000001</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05616766955423098</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.06236522073547045</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0547934727743268</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5492720603942871</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50.43672663876916</v>
+      </c>
+      <c r="D11" t="n">
+        <v>24.60192311171482</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.9851</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03575063935951681</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.04959315688659748</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.05002908799797297</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4140217304229736</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50.46434104753157</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.24139463903722</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9783500000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9757</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.06160913029265019</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.07627461639543374</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.08433482944965362</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.4971108436584473</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50.55741625425421</v>
+      </c>
+      <c r="D13" t="n">
+        <v>24.38469223889371</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.9863499999999999</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9844000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03235126774437645</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.04598763788429399</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0519958877004683</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5009067058563232</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50.63712514959746</v>
+      </c>
+      <c r="D14" t="n">
+        <v>24.64286386301619</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.9892833333333333</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9891</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02589543571855913</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.03760984933469445</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.03708366760984063</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.4959897994995117</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50.97104556810076</v>
+      </c>
+      <c r="D15" t="n">
+        <v>24.99382829134241</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9856666666666667</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03573641958095694</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.04862157221262654</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0466736026108265</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5264813899993896</v>
+      </c>
+      <c r="C16" t="n">
+        <v>51.62279736804837</v>
+      </c>
+      <c r="D16" t="n">
+        <v>25.44052543255949</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9861666666666666</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9856</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03062936277078685</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0471477420690159</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.04787481026723981</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4182353019714355</v>
+      </c>
+      <c r="C17" t="n">
+        <v>51.29427730022635</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.21484786817107</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.9861333333333333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9859</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.02956780536921435</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.04552918813812236</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04618042465299368</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5065946578979492</v>
+      </c>
+      <c r="C18" t="n">
+        <v>52.67205936165276</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25.66786143050691</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.9873166666666666</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9856</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03116585386626583</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0422536300184826</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04547503693029285</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5371508598327637</v>
+      </c>
+      <c r="C19" t="n">
+        <v>52.4650890589789</v>
+      </c>
+      <c r="D19" t="n">
+        <v>25.3569393888236</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9902</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01415600948115831</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0311630428613474</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.03591283662244678</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.4818241596221924</v>
+      </c>
+      <c r="C20" t="n">
+        <v>58.47100592197081</v>
+      </c>
+      <c r="D20" t="n">
+        <v>25.70691926314499</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9901166666666666</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9883</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01363735960330814</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.03442117587352792</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.04044436234980821</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4903726577758789</v>
+      </c>
+      <c r="C21" t="n">
+        <v>54.4540157124403</v>
+      </c>
+      <c r="D21" t="n">
+        <v>25.56536466333166</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.99095</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9891</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01358733933183655</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.03128427033467839</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.03591171596199274</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5094888210296631</v>
+      </c>
+      <c r="C22" t="n">
+        <v>54.71164042697967</v>
+      </c>
+      <c r="D22" t="n">
+        <v>25.82931390997642</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9885166666666667</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9857</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01983615112683726</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.04069053411173324</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.04972141170874238</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5386326313018799</v>
+      </c>
+      <c r="C23" t="n">
+        <v>59.30411127548441</v>
+      </c>
+      <c r="D23" t="n">
+        <v>25.80984543545347</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9895666666666667</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9882</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01397758134846045</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.03738838968177637</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0427936103194952</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5256617069244385</v>
+      </c>
+      <c r="C24" t="n">
+        <v>62.11222550158325</v>
+      </c>
+      <c r="D24" t="n">
+        <v>25.92532420541009</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.98575</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9869</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02565149193684701</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.04913940612847607</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.04798565814271569</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5375392436981201</v>
+      </c>
+      <c r="C25" t="n">
+        <v>59.4287886916955</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.94687332352791</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9907833333333333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9908</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01169952017634416</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0317064023266236</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.03406222318299115</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5004372596740723</v>
+      </c>
+      <c r="C26" t="n">
+        <v>61.79251174335826</v>
+      </c>
+      <c r="D26" t="n">
+        <v>25.9791365682495</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9861166666666666</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9852</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02396547285619603</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.04728093606730302</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0524153508245945</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5281267166137695</v>
+      </c>
+      <c r="C27" t="n">
+        <v>57.31312397810511</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25.63280864497874</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9895166666666667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9893999999999999</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01561525710908476</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.03674367379086713</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.03814844684675336</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.4924249649047852</v>
+      </c>
+      <c r="C28" t="n">
+        <v>61.03958455678478</v>
+      </c>
+      <c r="D28" t="n">
+        <v>25.80261681306262</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.99105</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01207519134241206</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.03078445798795049</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03638385278172791</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5157694816589355</v>
+      </c>
+      <c r="C29" t="n">
+        <v>62.26986520196812</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25.85705593363332</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9921833333333333</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9906</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.006151787091737553</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.02818653271533549</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.03465823722071946</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5783274173736572</v>
+      </c>
+      <c r="C30" t="n">
+        <v>64.22166631353049</v>
+      </c>
+      <c r="D30" t="n">
+        <v>25.94386428869958</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.99205</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.009958673130861052</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.02846921116967375</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.03008246072567999</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.4989597797393799</v>
+      </c>
+      <c r="C31" t="n">
+        <v>63.75555031409352</v>
+      </c>
+      <c r="D31" t="n">
+        <v>25.59954611860805</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9904833333333334</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9878</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.01342751029615981</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.03270574204313258</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.04121073987334967</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4608161449432373</v>
+      </c>
+      <c r="C32" t="n">
+        <v>64.04385301900965</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.84273734442876</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9884333333333334</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01635727573121067</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.04166000187397003</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.04993973290547728</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5293693542480469</v>
+      </c>
+      <c r="C33" t="n">
+        <v>56.87425096561837</v>
+      </c>
+      <c r="D33" t="n">
+        <v>24.08568507159239</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9914666666666667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9911</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.007688045062960917</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.03089263113215566</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.03643565978854894</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4951050281524658</v>
+      </c>
+      <c r="C34" t="n">
+        <v>61.98014665893155</v>
+      </c>
+      <c r="D34" t="n">
+        <v>25.15912793364798</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9916</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9923</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.009825023034492368</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0305618184482834</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.03279190179891885</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4957706928253174</v>
+      </c>
+      <c r="C35" t="n">
+        <v>59.29792454601434</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.59186345427126</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.9917166666666667</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9897</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.006373127462074501</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.03116109004477039</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.03632751679979265</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5093910694122314</v>
+      </c>
+      <c r="C36" t="n">
+        <v>63.10720370369246</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25.80230875372306</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.99085</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9901</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01081445383130803</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0329652479015446</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.03677623472176492</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.4859211444854736</v>
+      </c>
+      <c r="C37" t="n">
+        <v>63.10402756982408</v>
+      </c>
+      <c r="D37" t="n">
+        <v>25.00013297961081</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.98865</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9889</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.01400341263156064</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.04117058669604982</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.04339710958302021</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5468404293060303</v>
+      </c>
+      <c r="C38" t="n">
+        <v>63.88959223940903</v>
+      </c>
+      <c r="D38" t="n">
+        <v>25.15708756833338</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.9902166666666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9883</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.01296660117867593</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.03704265208604435</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.04316261103376746</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4803478717803955</v>
+      </c>
+      <c r="C39" t="n">
+        <v>64.91040224544282</v>
+      </c>
+      <c r="D39" t="n">
+        <v>25.62634579850836</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9893999999999999</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.01231377386057409</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.03663016265879075</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.03994960030540824</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4348175525665283</v>
+      </c>
+      <c r="C40" t="n">
+        <v>65.09441255831896</v>
+      </c>
+      <c r="D40" t="n">
+        <v>25.53533556751753</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.9870166666666667</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9838</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01680062467517752</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.04779548842149476</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.05837934026494622</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4826841354370117</v>
+      </c>
+      <c r="C41" t="n">
+        <v>64.48976731058453</v>
+      </c>
+      <c r="D41" t="n">
+        <v>25.21906573083899</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.9853833333333334</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9846</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0253276180010289</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.05217973366379738</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.05764240995049476</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5521082878112793</v>
+      </c>
+      <c r="C42" t="n">
+        <v>58.07468597617382</v>
+      </c>
+      <c r="D42" t="n">
+        <v>24.67678832193132</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.99055</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9896</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.009046963051146757</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0365954786616688</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0401276612188667</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5174708366394043</v>
+      </c>
+      <c r="C43" t="n">
+        <v>62.35674146969142</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25.21032656571382</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.9906</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9888</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.009039003455508199</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.03470481578648711</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.04207722852006555</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.4860987663269043</v>
+      </c>
+      <c r="C44" t="n">
+        <v>64.03202708038879</v>
+      </c>
+      <c r="D44" t="n">
+        <v>25.29856208294259</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9894500000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9876</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.009781600393903172</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.03894643466725635</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.04636471942067146</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5003314018249512</v>
+      </c>
+      <c r="C45" t="n">
+        <v>64.96633797831794</v>
+      </c>
+      <c r="D45" t="n">
+        <v>25.72453759426331</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9920333333333333</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9903</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.004196472158211144</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.03137077807526414</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.03801255938597024</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.6249258518218994</v>
+      </c>
+      <c r="C46" t="n">
+        <v>65.33325217184962</v>
+      </c>
+      <c r="D46" t="n">
+        <v>25.86358767687416</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9898</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.004293954488383205</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.03021347317359565</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0370169235393405</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.4952011108398438</v>
+      </c>
+      <c r="C47" t="n">
+        <v>65.47734342211054</v>
+      </c>
+      <c r="D47" t="n">
+        <v>25.71472792277554</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.9927666666666667</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9922</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.004636799461290901</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.02700244022610908</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.03207671965938062</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.4900736808776855</v>
+      </c>
+      <c r="C48" t="n">
+        <v>65.53392964517786</v>
+      </c>
+      <c r="D48" t="n">
+        <v>25.85611617661417</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.9909</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9908</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.008765112953535933</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.03630278563359753</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.03670256743207574</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.4424209594726562</v>
+      </c>
+      <c r="C49" t="n">
+        <v>65.55615167902953</v>
+      </c>
+      <c r="D49" t="n">
+        <v>25.67581896703056</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.9909166666666667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9883999999999999</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.006622342720767984</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.03384637723211199</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0429999727755785</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5024847984313965</v>
+      </c>
+      <c r="C50" t="n">
+        <v>65.56487851679562</v>
+      </c>
+      <c r="D50" t="n">
+        <v>25.71030050748561</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9924833333333334</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9929</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.004920005435167852</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.02961717403474419</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.03084599627181888</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.4805698394775391</v>
+      </c>
+      <c r="C51" t="n">
+        <v>65.52935948452694</v>
+      </c>
+      <c r="D51" t="n">
+        <v>25.63149888488712</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.9917833333333334</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9905</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.004087423029172945</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.03417249894118868</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.03916824404150247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>